--- a/3.xlsx
+++ b/3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3 курс\Мобилки\ПР5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E53E48-6E35-41A6-AF2A-3451D6D87FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,22 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +73,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +350,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/3.xlsx
+++ b/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3 курс\Мобилки\ПР5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E53E48-6E35-41A6-AF2A-3451D6D87FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBD1847-AB0B-49A3-9AD9-3A4A121E56C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>LastName</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>
@@ -351,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -363,7 +369,7 @@
     <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -372,6 +378,12 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/3.xlsx
+++ b/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3 курс\Мобилки\ПР5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBD1847-AB0B-49A3-9AD9-3A4A121E56C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85933F66-EED7-4A19-B322-F58D5C372353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Иванов</t>
   </si>
 </sst>
 </file>
@@ -75,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -357,16 +364,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -386,6 +395,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>38492</v>
+      </c>
+      <c r="E2">
+        <v>88005353535</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
